--- a/kcbp_cgal_cuda/Release/ResultAnalysis.xlsx
+++ b/kcbp_cgal_cuda/Release/ResultAnalysis.xlsx
@@ -9,19 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bunny sample" sheetId="1" r:id="rId1"/>
-    <sheet name="Bunny" sheetId="2" r:id="rId2"/>
-    <sheet name="Apple" sheetId="3" r:id="rId3"/>
+    <sheet name="Bunny" sheetId="4" r:id="rId2"/>
+    <sheet name="Apple" sheetId="5" r:id="rId3"/>
+    <sheet name="Budda" sheetId="6" r:id="rId4"/>
+    <sheet name="Dinosaur" sheetId="7" r:id="rId5"/>
+    <sheet name="Bunny-200" sheetId="2" r:id="rId6"/>
+    <sheet name="Apple-200" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="46">
   <si>
     <t>n</t>
   </si>
@@ -175,6 +179,10 @@
   </si>
   <si>
     <t>Budda能到110</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +787,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2674,10 +2685,6418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>201</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>244</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>314</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>359</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>77</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>414</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1">
+        <v>462</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>119</v>
+      </c>
+      <c r="G10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1">
+        <v>515</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>129</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>245</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1">
+        <v>314</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>360</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1">
+        <v>413</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1">
+        <v>463</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>119</v>
+      </c>
+      <c r="G22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1">
+        <v>512</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>127</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1">
+        <v>198</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <v>244</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1">
+        <v>313</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1">
+        <v>362</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>77</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>413</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>101</v>
+      </c>
+      <c r="G33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1">
+        <v>466</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>119</v>
+      </c>
+      <c r="G34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1">
+        <v>515</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1">
+        <v>128</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>31</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>198</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1">
+        <v>243</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1">
+        <v>314</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>62</v>
+      </c>
+      <c r="G43">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44" s="1">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1">
+        <v>358</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>77</v>
+      </c>
+      <c r="G44">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45" s="1">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1">
+        <v>412</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>101</v>
+      </c>
+      <c r="G45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1">
+        <v>462</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>119</v>
+      </c>
+      <c r="G46">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47" s="1">
+        <v>95</v>
+      </c>
+      <c r="C47" s="1">
+        <v>514</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>200</v>
+      </c>
+      <c r="G47">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51" s="1">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1">
+        <v>36</v>
+      </c>
+      <c r="C52" s="1">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>31</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1">
+        <v>245</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>43</v>
+      </c>
+      <c r="G54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1">
+        <v>312</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>62</v>
+      </c>
+      <c r="G55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1">
+        <v>362</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>77</v>
+      </c>
+      <c r="G56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1">
+        <v>412</v>
+      </c>
+      <c r="D57" s="1">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>101</v>
+      </c>
+      <c r="G57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58" s="1">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1">
+        <v>466</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>119</v>
+      </c>
+      <c r="G58">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1">
+        <v>515</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+      <c r="G59">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <f>AVERAGE(A2,A14,A26,A38,A50)</f>
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ref="B62:G62" si="0">AVERAGE(B2,B14,B26,B38,B50)</f>
+        <v>13.6</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f t="shared" ref="A63:G73" si="1">AVERAGE(A3,A15,A27,A39,A51)</f>
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>23.8</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>53.4</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>42.4</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>199.4</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>244.2</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>313.39999999999998</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>66.8</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>360.2</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>72.2</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>412.8</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>463.8</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>514.20000000000005</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="1"/>
+        <v>13.6</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:G71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>295</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>378</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>449</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>601</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>678</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>837</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>133</v>
+      </c>
+      <c r="C10">
+        <v>898</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>106</v>
+      </c>
+      <c r="G10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>991</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>183</v>
+      </c>
+      <c r="G11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>270</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>355</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>430</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>585</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>672</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>841</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>145</v>
+      </c>
+      <c r="C22">
+        <v>904</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>106</v>
+      </c>
+      <c r="G22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>140</v>
+      </c>
+      <c r="C23">
+        <v>998</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>183</v>
+      </c>
+      <c r="G23">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>270</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>357</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>430</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>589</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>674</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>65</v>
+      </c>
+      <c r="G32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>839</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>96</v>
+      </c>
+      <c r="G33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>133</v>
+      </c>
+      <c r="C34">
+        <v>902</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>140</v>
+      </c>
+      <c r="C35">
+        <v>998</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>183</v>
+      </c>
+      <c r="G35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>269</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>353</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>78</v>
+      </c>
+      <c r="C42">
+        <v>430</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>593</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>56</v>
+      </c>
+      <c r="G43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>105</v>
+      </c>
+      <c r="C44">
+        <v>678</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>65</v>
+      </c>
+      <c r="G44">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>118</v>
+      </c>
+      <c r="C45">
+        <v>839</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>96</v>
+      </c>
+      <c r="G45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>130</v>
+      </c>
+      <c r="C46">
+        <v>899</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>106</v>
+      </c>
+      <c r="G46">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>149</v>
+      </c>
+      <c r="C47">
+        <v>993</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>183</v>
+      </c>
+      <c r="G47">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>86</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>269</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>29</v>
+      </c>
+      <c r="G52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>354</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>82</v>
+      </c>
+      <c r="C54">
+        <v>430</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>92</v>
+      </c>
+      <c r="C55">
+        <v>585</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>56</v>
+      </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>104</v>
+      </c>
+      <c r="C56">
+        <v>674</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>65</v>
+      </c>
+      <c r="G56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>113</v>
+      </c>
+      <c r="C57">
+        <v>836</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>96</v>
+      </c>
+      <c r="G57">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>134</v>
+      </c>
+      <c r="C58">
+        <v>904</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>106</v>
+      </c>
+      <c r="G58">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>144</v>
+      </c>
+      <c r="C59">
+        <v>991</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>183</v>
+      </c>
+      <c r="G59">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <f>AVERAGE(A2,A14,A26,A38,A50)</f>
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ref="B62:G62" si="0">AVERAGE(B2,B14,B26,B38,B50)</f>
+        <v>16.8</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f t="shared" ref="A63:G71" si="1">AVERAGE(A3,A15,A27,A39,A51)</f>
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>88.4</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>48.8</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>274.60000000000002</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>65.2</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>359.4</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>82.4</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>433.8</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>89.8</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>590.6</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>105.6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>675.2</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>115.4</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>838.4</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>901.4</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>143.6</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>994.2</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>292</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>469</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>2285</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>126</v>
+      </c>
+      <c r="C5">
+        <v>3080</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>157</v>
+      </c>
+      <c r="C6">
+        <v>3969</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>188</v>
+      </c>
+      <c r="C7">
+        <v>4741</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>222</v>
+      </c>
+      <c r="C8">
+        <v>5775</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>251</v>
+      </c>
+      <c r="C9">
+        <v>6841</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>285</v>
+      </c>
+      <c r="C10">
+        <v>7564</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>314</v>
+      </c>
+      <c r="C11">
+        <v>8378</v>
+      </c>
+      <c r="D11">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>280</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>458</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>2248</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>127</v>
+      </c>
+      <c r="C17">
+        <v>3081</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <v>3958</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>190</v>
+      </c>
+      <c r="C19">
+        <v>4768</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>222</v>
+      </c>
+      <c r="C20">
+        <v>5774</v>
+      </c>
+      <c r="D20">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>250</v>
+      </c>
+      <c r="C21">
+        <v>6824</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>54</v>
+      </c>
+      <c r="F21">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>286</v>
+      </c>
+      <c r="C22">
+        <v>7563</v>
+      </c>
+      <c r="D22">
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>84</v>
+      </c>
+      <c r="G22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>314</v>
+      </c>
+      <c r="C23">
+        <v>8392</v>
+      </c>
+      <c r="D23">
+        <v>99</v>
+      </c>
+      <c r="E23">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>140</v>
+      </c>
+      <c r="G23">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>277</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+      <c r="C27">
+        <v>458</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>2245</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>126</v>
+      </c>
+      <c r="C29">
+        <v>3082</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>157</v>
+      </c>
+      <c r="C30">
+        <v>3956</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>189</v>
+      </c>
+      <c r="C31">
+        <v>4745</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>218</v>
+      </c>
+      <c r="C32">
+        <v>5777</v>
+      </c>
+      <c r="D32">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>62</v>
+      </c>
+      <c r="F32">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+      <c r="C33">
+        <v>6806</v>
+      </c>
+      <c r="D33">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>53</v>
+      </c>
+      <c r="F33">
+        <v>68</v>
+      </c>
+      <c r="G33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>284</v>
+      </c>
+      <c r="C34">
+        <v>7554</v>
+      </c>
+      <c r="D34">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>75</v>
+      </c>
+      <c r="F34">
+        <v>84</v>
+      </c>
+      <c r="G34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>315</v>
+      </c>
+      <c r="C35">
+        <v>8393</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>98</v>
+      </c>
+      <c r="F35">
+        <v>140</v>
+      </c>
+      <c r="G35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>277</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>63</v>
+      </c>
+      <c r="C39">
+        <v>457</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>96</v>
+      </c>
+      <c r="C40">
+        <v>2250</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>127</v>
+      </c>
+      <c r="C41">
+        <v>3067</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>157</v>
+      </c>
+      <c r="C42">
+        <v>3967</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>29</v>
+      </c>
+      <c r="G42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>193</v>
+      </c>
+      <c r="C43">
+        <v>4797</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>221</v>
+      </c>
+      <c r="C44">
+        <v>5841</v>
+      </c>
+      <c r="D44">
+        <v>62</v>
+      </c>
+      <c r="E44">
+        <v>61</v>
+      </c>
+      <c r="F44">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>250</v>
+      </c>
+      <c r="C45">
+        <v>6835</v>
+      </c>
+      <c r="D45">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>53</v>
+      </c>
+      <c r="F45">
+        <v>68</v>
+      </c>
+      <c r="G45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>286</v>
+      </c>
+      <c r="C46">
+        <v>7545</v>
+      </c>
+      <c r="D46">
+        <v>76</v>
+      </c>
+      <c r="E46">
+        <v>75</v>
+      </c>
+      <c r="F46">
+        <v>84</v>
+      </c>
+      <c r="G46">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>317</v>
+      </c>
+      <c r="C47">
+        <v>8377</v>
+      </c>
+      <c r="D47">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>97</v>
+      </c>
+      <c r="F47">
+        <v>140</v>
+      </c>
+      <c r="G47">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>275</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>459</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>96</v>
+      </c>
+      <c r="C52">
+        <v>2237</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>128</v>
+      </c>
+      <c r="C53">
+        <v>3089</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>157</v>
+      </c>
+      <c r="C54">
+        <v>3952</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>29</v>
+      </c>
+      <c r="G54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>190</v>
+      </c>
+      <c r="C55">
+        <v>4788</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>42</v>
+      </c>
+      <c r="G55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>220</v>
+      </c>
+      <c r="C56">
+        <v>5795</v>
+      </c>
+      <c r="D56">
+        <v>62</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="F56">
+        <v>51</v>
+      </c>
+      <c r="G56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>250</v>
+      </c>
+      <c r="C57">
+        <v>6885</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
+      </c>
+      <c r="E57">
+        <v>53</v>
+      </c>
+      <c r="F57">
+        <v>68</v>
+      </c>
+      <c r="G57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>283</v>
+      </c>
+      <c r="C58">
+        <v>7570</v>
+      </c>
+      <c r="D58">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>75</v>
+      </c>
+      <c r="F58">
+        <v>84</v>
+      </c>
+      <c r="G58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>315</v>
+      </c>
+      <c r="C59">
+        <v>8370</v>
+      </c>
+      <c r="D59">
+        <v>101</v>
+      </c>
+      <c r="E59">
+        <v>98</v>
+      </c>
+      <c r="F59">
+        <v>140</v>
+      </c>
+      <c r="G59">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <f>AVERAGE(A2,A14,A26,A38,A50)</f>
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ref="B62:G62" si="0">AVERAGE(B2,B14,B26,B38,B50)</f>
+        <v>32</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>280.2</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f t="shared" ref="A63:G71" si="1">AVERAGE(A3,A15,A27,A39,A51)</f>
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>63.8</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>460.2</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>95.8</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>2253</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>126.8</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>3079.8</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>3960.4</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>4767.8</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>220.6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>5792.4</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="1"/>
+        <v>61.8</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="1"/>
+        <v>61.2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>250.2</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>6838.2</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>54.4</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="1"/>
+        <v>53.4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>284.8</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>7559.2</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="1"/>
+        <v>74.8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>8382</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>99.4</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>359</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>487</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>2330</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>146</v>
+      </c>
+      <c r="C5">
+        <v>2501</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>3073</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>215</v>
+      </c>
+      <c r="C7">
+        <v>4271</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>249</v>
+      </c>
+      <c r="C8">
+        <v>6067</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>282</v>
+      </c>
+      <c r="C9">
+        <v>6762</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>321</v>
+      </c>
+      <c r="C10">
+        <v>7494</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>357</v>
+      </c>
+      <c r="C11">
+        <v>9173</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>363</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>493</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>2304</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>147</v>
+      </c>
+      <c r="C17">
+        <v>2520</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>183</v>
+      </c>
+      <c r="C18">
+        <v>3117</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>224</v>
+      </c>
+      <c r="C19">
+        <v>4364</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>256</v>
+      </c>
+      <c r="C20">
+        <v>6298</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>293</v>
+      </c>
+      <c r="C21">
+        <v>6967</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>320</v>
+      </c>
+      <c r="C22">
+        <v>7508</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>356</v>
+      </c>
+      <c r="C23">
+        <v>9272</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>359</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>489</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <v>2278</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>144</v>
+      </c>
+      <c r="C29">
+        <v>2532</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>184</v>
+      </c>
+      <c r="C30">
+        <v>3091</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>218</v>
+      </c>
+      <c r="C31">
+        <v>4310</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>253</v>
+      </c>
+      <c r="C32">
+        <v>6262</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>290</v>
+      </c>
+      <c r="C33">
+        <v>6961</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>321</v>
+      </c>
+      <c r="C34">
+        <v>7610</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>361</v>
+      </c>
+      <c r="C35">
+        <v>9289</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>37</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>362</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>488</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>2283</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>142</v>
+      </c>
+      <c r="C41">
+        <v>2502</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>180</v>
+      </c>
+      <c r="C42">
+        <v>3163</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>216</v>
+      </c>
+      <c r="C43">
+        <v>4360</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>252</v>
+      </c>
+      <c r="C44">
+        <v>6122</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>292</v>
+      </c>
+      <c r="C45">
+        <v>6909</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>320</v>
+      </c>
+      <c r="C46">
+        <v>7628</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>363</v>
+      </c>
+      <c r="C47">
+        <v>9484</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>37</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>374</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>488</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>2318</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>144</v>
+      </c>
+      <c r="C53">
+        <v>2532</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>183</v>
+      </c>
+      <c r="C54">
+        <v>3159</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>218</v>
+      </c>
+      <c r="C55">
+        <v>4419</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>258</v>
+      </c>
+      <c r="C56">
+        <v>6114</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57">
+        <v>292</v>
+      </c>
+      <c r="C57">
+        <v>6922</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>328</v>
+      </c>
+      <c r="C58">
+        <v>7601</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>357</v>
+      </c>
+      <c r="C59">
+        <v>9245</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>37</v>
+      </c>
+      <c r="G59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <f>AVERAGE(A2,A14,A26,A38,A50)</f>
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" ref="B62:G62" si="0">AVERAGE(B2,B14,B26,B38,B50)</f>
+        <v>36.6</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>363.4</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f t="shared" ref="A63:G71" si="1">AVERAGE(A3,A15,A27,A39,A51)</f>
+        <v>20</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>489</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>110.4</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>2302.6</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>144.6</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>2517.4</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>3120.6</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>218.2</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>4344.8</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>253.6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>6172.6</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>289.8</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>6904.2</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>7568.2</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>358.8</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="1"/>
+        <v>9292.6</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4432,12 +10851,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
